--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1434.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1434.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.894665927965559</v>
+        <v>0.7177848219871521</v>
       </c>
       <c r="B1">
-        <v>1.985583170737457</v>
+        <v>3.934299945831299</v>
       </c>
       <c r="C1">
-        <v>2.238922745863538</v>
+        <v>5.767133235931396</v>
       </c>
       <c r="D1">
-        <v>3.482567224422491</v>
+        <v>1.617388725280762</v>
       </c>
       <c r="E1">
-        <v>1.368844497500539</v>
+        <v>0.9706059098243713</v>
       </c>
     </row>
   </sheetData>
